--- a/spreadsheets/devices.xlsx
+++ b/spreadsheets/devices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cassio/PycharmProjects/get_switches_info/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D22F56A-DA56-344F-B393-55A20DCBA21C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1AB453-2371-1A48-BD0A-E0424F986403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14060" yWindow="-28800" windowWidth="68800" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,19 +50,19 @@
     <t>mgmt_ip</t>
   </si>
   <si>
-    <t>status</t>
-  </si>
-  <si>
     <t>switch1</t>
   </si>
   <si>
-    <t>1.1.1.1</t>
-  </si>
-  <si>
     <t>switch2</t>
   </si>
   <si>
-    <t>2.2.2.2</t>
+    <t>state</t>
+  </si>
+  <si>
+    <t>192.168.1.101</t>
+  </si>
+  <si>
+    <t>192.168.1.102</t>
   </si>
 </sst>
 </file>
@@ -197,7 +197,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{381CC9EE-E379-3949-8A0B-9662994EC61F}" name="hostname" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{8E625E2F-DFC3-1E47-9623-DFDC9AA7CC26}" name="mgmt_ip" dataDxfId="0"/>
-    <tableColumn id="15" xr3:uid="{4C9C0F45-1D83-3E4C-B741-676088ACCAA4}" name="status"/>
+    <tableColumn id="15" xr3:uid="{4C9C0F45-1D83-3E4C-B741-676088ACCAA4}" name="state"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -503,7 +503,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -520,20 +520,20 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>

--- a/spreadsheets/devices.xlsx
+++ b/spreadsheets/devices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cassio/PycharmProjects/get_switches_info/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1AB453-2371-1A48-BD0A-E0424F986403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977E413C-5F33-9A4A-AF7E-8A1FA86C3FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14060" yWindow="-28800" windowWidth="68800" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14080" yWindow="-28300" windowWidth="68800" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="devices" sheetId="6" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>hostname</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>192.168.1.102</t>
+  </si>
+  <si>
+    <t>switch3</t>
+  </si>
+  <si>
+    <t>192.168.1.103</t>
   </si>
 </sst>
 </file>
@@ -119,10 +125,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -187,13 +192,9 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{509596C7-D353-D14A-BD3B-3A0CCF6D18AE}" name="devices" displayName="devices" ref="A1:C3" totalsRowShown="0">
-  <autoFilter ref="A1:C3" xr:uid="{6F3A0D7A-D722-E743-99ED-9A12FCB8C763}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{509596C7-D353-D14A-BD3B-3A0CCF6D18AE}" name="devices" displayName="devices" ref="A1:C4" totalsRowShown="0">
+  <autoFilter ref="A1:C4" xr:uid="{6F3A0D7A-D722-E743-99ED-9A12FCB8C763}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{381CC9EE-E379-3949-8A0B-9662994EC61F}" name="hostname" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{8E625E2F-DFC3-1E47-9623-DFDC9AA7CC26}" name="mgmt_ip" dataDxfId="0"/>
@@ -500,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A47D4A-1E9B-EF4E-8065-17402CAF3208}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -527,7 +528,7 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -535,14 +536,22 @@
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3" xr:uid="{41FB4655-EBF7-814C-8C99-FE684AC3E8AE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4" xr:uid="{41FB4655-EBF7-814C-8C99-FE684AC3E8AE}">
       <formula1>"present,ignored"</formula1>
     </dataValidation>
   </dataValidations>
